--- a/test/helper/farrowing_data/farrowing_data.xlsx
+++ b/test/helper/farrowing_data/farrowing_data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6466BA74-2B02-4F72-A138-6E7FF644BF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhangyu/Documents/大學/實驗室/種豬資料庫/breeding_DB/test/helper/farrowing_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B38B21-D494-464E-AED2-9F1AB197EB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分娩資料" sheetId="3" r:id="rId1"/>
@@ -17,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="223">
   <si>
     <t>生日年品種耳號</t>
   </si>
@@ -699,6 +693,10 @@
   </si>
   <si>
     <t>1017-3</t>
+  </si>
+  <si>
+    <t>胎號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -706,14 +704,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -740,7 +745,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1075,22 +1080,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E5BEE-6ACF-40EF-BC29-1914A85A0815}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1133,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1162,8 +1171,12 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <f ca="1">RANDBETWEEN(1000, 2000)</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1197,8 +1210,12 @@
       <c r="K3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <f t="shared" ref="M3:M63" ca="1" si="0">RANDBETWEEN(1000, 2000)</f>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1232,8 +1249,12 @@
       <c r="K4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1267,8 +1288,12 @@
       <c r="K5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1302,8 +1327,12 @@
       <c r="K6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1337,8 +1366,12 @@
       <c r="K7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1372,8 +1405,12 @@
       <c r="K8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1407,8 +1444,12 @@
       <c r="K9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1442,8 +1483,12 @@
       <c r="K10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1477,8 +1522,12 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1512,8 +1561,12 @@
       <c r="K12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1547,8 +1600,12 @@
       <c r="K13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1582,8 +1639,12 @@
       <c r="K14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1617,8 +1678,12 @@
       <c r="K15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1652,8 +1717,12 @@
       <c r="K16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1687,8 +1756,12 @@
       <c r="K17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1722,8 +1795,12 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1834,12 @@
       <c r="K19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1792,8 +1873,12 @@
       <c r="K20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="M20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1827,8 +1912,12 @@
       <c r="K21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1951,12 @@
       <c r="K22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1897,8 +1990,12 @@
       <c r="K23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1932,8 +2029,12 @@
       <c r="K24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24">
+        <f t="shared" ca="1" si="0"/>
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1967,8 +2068,12 @@
       <c r="K25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2002,8 +2107,12 @@
       <c r="K26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="M26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -2037,8 +2146,12 @@
       <c r="K27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="M27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -2072,8 +2185,12 @@
       <c r="K28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="M28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2107,8 +2224,12 @@
       <c r="K29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2142,8 +2263,12 @@
       <c r="K30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="M30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2177,8 +2302,12 @@
       <c r="K31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31">
+        <f t="shared" ca="1" si="0"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2212,8 +2341,12 @@
       <c r="K32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32">
+        <f t="shared" ca="1" si="0"/>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2247,8 +2380,12 @@
       <c r="K33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33">
+        <f t="shared" ca="1" si="0"/>
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2282,8 +2419,12 @@
       <c r="K34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34">
+        <f t="shared" ca="1" si="0"/>
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -2317,8 +2458,12 @@
       <c r="K35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35">
+        <f t="shared" ca="1" si="0"/>
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -2352,8 +2497,12 @@
       <c r="K36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="M36">
+        <f t="shared" ca="1" si="0"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2387,8 +2536,12 @@
       <c r="K37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="M37">
+        <f t="shared" ca="1" si="0"/>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2422,8 +2575,12 @@
       <c r="K38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38">
+        <f t="shared" ca="1" si="0"/>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2457,8 +2614,12 @@
       <c r="K39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="M39">
+        <f t="shared" ca="1" si="0"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2492,8 +2653,12 @@
       <c r="K40" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="M40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -2527,8 +2692,12 @@
       <c r="K41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="M41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2562,8 +2731,12 @@
       <c r="K42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2597,8 +2770,12 @@
       <c r="K43" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43">
+        <f t="shared" ca="1" si="0"/>
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2632,8 +2809,12 @@
       <c r="K44" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="M44">
+        <f t="shared" ca="1" si="0"/>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2667,8 +2848,12 @@
       <c r="K45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="M45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -2702,8 +2887,12 @@
       <c r="K46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="M46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -2737,8 +2926,12 @@
       <c r="K47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="M47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2772,8 +2965,12 @@
       <c r="K48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2807,8 +3004,12 @@
       <c r="K49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <f t="shared" ca="1" si="0"/>
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -2842,8 +3043,12 @@
       <c r="K50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2878,8 +3083,12 @@
       <c r="L51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <f t="shared" ca="1" si="0"/>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="B52" s="1">
         <v>44405</v>
       </c>
@@ -2913,8 +3122,12 @@
       <c r="L52" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -2948,8 +3161,12 @@
       <c r="L53" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <f t="shared" ca="1" si="0"/>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2983,8 +3200,12 @@
       <c r="L54" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <f t="shared" ca="1" si="0"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3015,8 +3236,12 @@
       <c r="L55" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <f t="shared" ca="1" si="0"/>
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3047,8 +3272,12 @@
       <c r="L56" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <f t="shared" ca="1" si="0"/>
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3079,8 +3308,12 @@
       <c r="L57" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <f t="shared" ca="1" si="0"/>
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3111,8 +3344,12 @@
       <c r="L58" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <f t="shared" ca="1" si="0"/>
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3143,8 +3380,12 @@
       <c r="L59" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <f t="shared" ca="1" si="0"/>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3175,8 +3416,12 @@
       <c r="L60" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <f t="shared" ca="1" si="0"/>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3207,8 +3452,12 @@
       <c r="L61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -3239,8 +3488,12 @@
       <c r="L62" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -3274,8 +3527,13 @@
       <c r="L63" t="s">
         <v>57</v>
       </c>
+      <c r="M63">
+        <f t="shared" ca="1" si="0"/>
+        <v>1985</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3289,15 +3547,15 @@
       <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5126,6 +5384,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O1048568">
     <sortCondition ref="O2:O1048568"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5138,12 +5397,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -5196,7 +5455,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>118</v>
       </c>
@@ -5216,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>4</v>
       </c>
@@ -5239,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5262,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>10</v>
       </c>
@@ -5285,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>15</v>
       </c>
@@ -5308,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>16</v>
       </c>
@@ -5331,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>17</v>
       </c>
@@ -5354,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>18</v>
       </c>
@@ -5377,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>19</v>
       </c>
@@ -5400,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>20</v>
       </c>
@@ -5423,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>21</v>
       </c>
@@ -5446,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>25</v>
       </c>
@@ -5469,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>26</v>
       </c>
@@ -5492,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5">
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>28</v>
       </c>
@@ -5515,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5">
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>29</v>
       </c>
@@ -5538,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>30</v>
       </c>
@@ -5561,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>31</v>
       </c>
@@ -5584,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>32</v>
       </c>
@@ -5607,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>33</v>
       </c>
@@ -5630,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>34</v>
       </c>
@@ -5653,7 +5912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>36</v>
       </c>
@@ -5676,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>40</v>
       </c>
@@ -5699,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>41</v>
       </c>
@@ -5722,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>42</v>
       </c>
@@ -5745,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>43</v>
       </c>
@@ -5768,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>47</v>
       </c>
@@ -5791,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>50</v>
       </c>
@@ -5814,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>51</v>
       </c>
@@ -5837,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16.5">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>57</v>
       </c>
@@ -5860,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>59</v>
       </c>
@@ -5883,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16.5">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>60</v>
       </c>
@@ -5906,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16.5">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>63</v>
       </c>
@@ -5929,7 +6188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>64</v>
       </c>
@@ -5952,7 +6211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>71</v>
       </c>
@@ -5975,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>72</v>
       </c>
@@ -5998,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>73</v>
       </c>
@@ -6021,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>78</v>
       </c>
@@ -6044,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>79</v>
       </c>
@@ -6067,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>80</v>
       </c>
@@ -6090,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>82</v>
       </c>
@@ -6113,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>83</v>
       </c>
@@ -6136,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>84</v>
       </c>
@@ -6159,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>85</v>
       </c>
@@ -6182,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16.5">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>86</v>
       </c>
@@ -6205,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16.5">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>90</v>
       </c>
@@ -6228,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16.5">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>95</v>
       </c>
@@ -6251,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16.5">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>97</v>
       </c>
@@ -6274,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16.5">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>98</v>
       </c>
@@ -6297,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16.5">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>99</v>
       </c>
@@ -6320,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16.5">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>1</v>
       </c>
@@ -6343,7 +6602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.5">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>2</v>
       </c>
@@ -6366,7 +6625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16.5">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>6</v>
       </c>
@@ -6389,7 +6648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16.5">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>7</v>
       </c>
@@ -6412,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16.5">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>8</v>
       </c>
@@ -6435,7 +6694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16.5">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>9</v>
       </c>
@@ -6458,7 +6717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16.5">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>11</v>
       </c>
@@ -6481,7 +6740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16.5">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>12</v>
       </c>
@@ -6504,7 +6763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16.5">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>13</v>
       </c>
@@ -6527,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16.5">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>14</v>
       </c>
@@ -6550,7 +6809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16.5">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>22</v>
       </c>
@@ -6573,7 +6832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16.5">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>23</v>
       </c>
@@ -6596,7 +6855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16.5">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>24</v>
       </c>
@@ -6619,7 +6878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16.5">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>27</v>
       </c>
@@ -6642,7 +6901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="16.5">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>35</v>
       </c>
@@ -6665,7 +6924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16.5">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>37</v>
       </c>
@@ -6688,7 +6947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16.5">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>38</v>
       </c>
@@ -6711,7 +6970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16.5">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>39</v>
       </c>
@@ -6734,7 +6993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16.5">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>44</v>
       </c>
@@ -6757,7 +7016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16.5">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>45</v>
       </c>
@@ -6780,7 +7039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16.5">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>46</v>
       </c>
@@ -6803,7 +7062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16.5">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>48</v>
       </c>
@@ -6826,7 +7085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16.5">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>49</v>
       </c>
@@ -6849,7 +7108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16.5">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>52</v>
       </c>
@@ -6872,7 +7131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16.5">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>53</v>
       </c>
@@ -6895,7 +7154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16.5">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>54</v>
       </c>
@@ -6918,7 +7177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16.5">
+    <row r="77" spans="1:13">
       <c r="A77">
         <v>55</v>
       </c>
@@ -6941,7 +7200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16.5">
+    <row r="78" spans="1:13">
       <c r="A78">
         <v>56</v>
       </c>
@@ -6964,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16.5">
+    <row r="79" spans="1:13">
       <c r="A79">
         <v>58</v>
       </c>
@@ -6987,7 +7246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16.5">
+    <row r="80" spans="1:13">
       <c r="A80">
         <v>61</v>
       </c>
@@ -7010,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16.5">
+    <row r="81" spans="1:13">
       <c r="A81">
         <v>62</v>
       </c>
@@ -7033,7 +7292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16.5">
+    <row r="82" spans="1:13">
       <c r="A82">
         <v>65</v>
       </c>
@@ -7056,7 +7315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16.5">
+    <row r="83" spans="1:13">
       <c r="A83">
         <v>66</v>
       </c>
@@ -7079,7 +7338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="16.5">
+    <row r="84" spans="1:13">
       <c r="A84">
         <v>67</v>
       </c>
@@ -7102,7 +7361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="16.5">
+    <row r="85" spans="1:13">
       <c r="A85">
         <v>68</v>
       </c>
@@ -7125,7 +7384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16.5">
+    <row r="86" spans="1:13">
       <c r="A86">
         <v>69</v>
       </c>
@@ -7148,7 +7407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16.5">
+    <row r="87" spans="1:13">
       <c r="A87">
         <v>70</v>
       </c>
@@ -7171,7 +7430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5">
+    <row r="88" spans="1:13">
       <c r="A88">
         <v>74</v>
       </c>
@@ -7194,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16.5">
+    <row r="89" spans="1:13">
       <c r="A89">
         <v>75</v>
       </c>
@@ -7217,7 +7476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16.5">
+    <row r="90" spans="1:13">
       <c r="A90">
         <v>76</v>
       </c>
@@ -7240,7 +7499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16.5">
+    <row r="91" spans="1:13">
       <c r="A91">
         <v>77</v>
       </c>
@@ -7263,7 +7522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16.5">
+    <row r="92" spans="1:13">
       <c r="A92">
         <v>81</v>
       </c>
@@ -7286,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="16.5">
+    <row r="93" spans="1:13">
       <c r="A93">
         <v>87</v>
       </c>
@@ -7309,7 +7568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16.5">
+    <row r="94" spans="1:13">
       <c r="A94">
         <v>88</v>
       </c>
@@ -7332,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16.5">
+    <row r="95" spans="1:13">
       <c r="A95">
         <v>89</v>
       </c>
@@ -7355,7 +7614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16.5">
+    <row r="96" spans="1:13">
       <c r="A96">
         <v>91</v>
       </c>
@@ -7378,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="16.5">
+    <row r="97" spans="1:13">
       <c r="A97">
         <v>92</v>
       </c>
@@ -7401,7 +7660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="16.5">
+    <row r="98" spans="1:13">
       <c r="A98">
         <v>93</v>
       </c>
@@ -7424,7 +7683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="16.5">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7447,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16.5">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>96</v>
       </c>
@@ -7470,7 +7729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16.5">
+    <row r="101" spans="1:13">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7497,6 +7756,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q101">
     <sortCondition ref="M2:M101"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test/helper/farrowing_data/farrowing_data.xlsx
+++ b/test/helper/farrowing_data/farrowing_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9C23D1-B0D0-488A-8EFD-D08456205BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DF1FAF-4986-4D20-B9BD-7FB528700CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本資料" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="184">
   <si>
     <t>序號</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>欄1</t>
+  </si>
+  <si>
+    <t>出生胎次</t>
   </si>
   <si>
     <t>D</t>
@@ -620,10 +623,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -958,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -969,7 +975,7 @@
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5">
+    <row r="1" spans="1:18" ht="16.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,13 +1027,16 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5">
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>44832</v>
@@ -1036,21 +1045,21 @@
         <v>220815</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5">
+    <row r="3" spans="1:18" ht="16.5">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>45248</v>
@@ -1059,21 +1068,21 @@
         <v>114463</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5">
+    <row r="4" spans="1:18" ht="16.5">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>43117</v>
@@ -1082,67 +1091,67 @@
         <v>571977</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5">
+    <row r="5" spans="1:18" ht="16.5">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>44774</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5">
+    <row r="6" spans="1:18" ht="16.5">
       <c r="A6">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>45192</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5">
+    <row r="7" spans="1:18" ht="16.5">
       <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>42478</v>
@@ -1151,44 +1160,44 @@
         <v>622282</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5">
+    <row r="8" spans="1:18" ht="16.5">
       <c r="A8">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>42972</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5">
+    <row r="9" spans="1:18" ht="16.5">
       <c r="A9">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>42171</v>
@@ -1197,67 +1206,67 @@
         <v>546867</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5">
+    <row r="10" spans="1:18" ht="16.5">
       <c r="A10">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>43264</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5">
+    <row r="11" spans="1:18" ht="16.5">
       <c r="A11">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1">
         <v>45151</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5">
+    <row r="12" spans="1:18" ht="16.5">
       <c r="A12">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>44494</v>
@@ -1266,21 +1275,21 @@
         <v>695593</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5">
+    <row r="13" spans="1:18" ht="16.5">
       <c r="A13">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>44193</v>
@@ -1289,21 +1298,21 @@
         <v>630400</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5">
+    <row r="14" spans="1:18" ht="16.5">
       <c r="A14">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
         <v>42177</v>
@@ -1312,21 +1321,21 @@
         <v>590433</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5">
+    <row r="15" spans="1:18" ht="16.5">
       <c r="A15">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
         <v>44338</v>
@@ -1335,30 +1344,30 @@
         <v>246174</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5">
+    <row r="16" spans="1:18" ht="16.5">
       <c r="A16">
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>42646</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1369,19 +1378,19 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
         <v>42378</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1392,10 +1401,10 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1">
         <v>43824</v>
@@ -1404,7 +1413,7 @@
         <v>348752</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -1415,10 +1424,10 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1">
         <v>42152</v>
@@ -1427,7 +1436,7 @@
         <v>984299</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -1438,19 +1447,19 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1">
         <v>44746</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1461,10 +1470,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1">
         <v>42497</v>
@@ -1473,7 +1482,7 @@
         <v>188631</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1484,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1">
         <v>43655</v>
@@ -1496,7 +1505,7 @@
         <v>190895</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1507,10 +1516,10 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1">
         <v>44250</v>
@@ -1519,7 +1528,7 @@
         <v>454447</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1530,10 +1539,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1">
         <v>42692</v>
@@ -1542,7 +1551,7 @@
         <v>822190</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -1553,10 +1562,10 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
         <v>42243</v>
@@ -1565,7 +1574,7 @@
         <v>178181</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -1576,10 +1585,10 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1">
         <v>42329</v>
@@ -1588,7 +1597,7 @@
         <v>706220</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1599,19 +1608,19 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="1">
         <v>45629</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -1622,10 +1631,10 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1">
         <v>42025</v>
@@ -1634,7 +1643,7 @@
         <v>859416</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -1645,19 +1654,19 @@
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1">
         <v>43233</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -1668,19 +1677,19 @@
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1">
         <v>43078</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -1691,19 +1700,19 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1">
         <v>42914</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -1714,10 +1723,10 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="1">
         <v>42579</v>
@@ -1726,7 +1735,7 @@
         <v>380112</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -1737,10 +1746,10 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1">
         <v>44054</v>
@@ -1749,7 +1758,7 @@
         <v>696875</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -1760,19 +1769,19 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="1">
         <v>42668</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -1783,10 +1792,10 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" s="1">
         <v>42875</v>
@@ -1795,7 +1804,7 @@
         <v>193926</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -1806,19 +1815,19 @@
         <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1">
         <v>44359</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -1829,10 +1838,10 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1">
         <v>42243</v>
@@ -1841,7 +1850,7 @@
         <v>425614</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -1852,19 +1861,19 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E38" s="1">
         <v>45307</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -1875,10 +1884,10 @@
         <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1">
         <v>44068</v>
@@ -1887,7 +1896,7 @@
         <v>977245</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -1898,10 +1907,10 @@
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="1">
         <v>44309</v>
@@ -1910,7 +1919,7 @@
         <v>216083</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -1921,19 +1930,19 @@
         <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" s="1">
         <v>43412</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -1944,10 +1953,10 @@
         <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1">
         <v>43541</v>
@@ -1956,7 +1965,7 @@
         <v>383030</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -1967,19 +1976,19 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43" s="1">
         <v>42989</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -1990,19 +1999,19 @@
         <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E44" s="1">
         <v>43436</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -2013,10 +2022,10 @@
         <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1">
         <v>44391</v>
@@ -2025,7 +2034,7 @@
         <v>439917</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2036,10 +2045,10 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E46" s="1">
         <v>45176</v>
@@ -2048,7 +2057,7 @@
         <v>748742</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -2059,19 +2068,19 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E47" s="1">
         <v>42849</v>
       </c>
       <c r="H47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2082,19 +2091,19 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" s="1">
         <v>43267</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M48">
         <v>1</v>
@@ -2105,10 +2114,10 @@
         <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E49" s="1">
         <v>44364</v>
@@ -2117,7 +2126,7 @@
         <v>367015</v>
       </c>
       <c r="I49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -2128,19 +2137,19 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1">
         <v>42936</v>
       </c>
       <c r="H50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M50">
         <v>1</v>
@@ -2151,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E51" s="1">
         <v>43117</v>
@@ -2163,7 +2172,7 @@
         <v>394947</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -2174,19 +2183,19 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E52" s="1">
         <v>44027</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M52">
         <v>2</v>
@@ -2197,19 +2206,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E53" s="1">
         <v>44835</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -2220,10 +2229,10 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" s="1">
         <v>43307</v>
@@ -2232,7 +2241,7 @@
         <v>907904</v>
       </c>
       <c r="I54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -2243,19 +2252,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E55" s="1">
         <v>42892</v>
       </c>
       <c r="H55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M55">
         <v>2</v>
@@ -2266,10 +2275,10 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1">
         <v>44100</v>
@@ -2278,7 +2287,7 @@
         <v>175887</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -2289,10 +2298,10 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="1">
         <v>43137</v>
@@ -2301,7 +2310,7 @@
         <v>763857</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M57">
         <v>2</v>
@@ -2312,10 +2321,10 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="1">
         <v>43295</v>
@@ -2324,7 +2333,7 @@
         <v>117135</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -2335,10 +2344,10 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E59" s="1">
         <v>42189</v>
@@ -2347,7 +2356,7 @@
         <v>168284</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -2358,10 +2367,10 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="1">
         <v>43362</v>
@@ -2370,7 +2379,7 @@
         <v>926512</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -2381,19 +2390,19 @@
         <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E61" s="1">
         <v>44003</v>
       </c>
       <c r="H61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M61">
         <v>2</v>
@@ -2404,10 +2413,10 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="1">
         <v>45474</v>
@@ -2416,7 +2425,7 @@
         <v>886097</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -2427,19 +2436,19 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" s="1">
         <v>43901</v>
       </c>
       <c r="H63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -2450,10 +2459,10 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E64" s="1">
         <v>43571</v>
@@ -2462,7 +2471,7 @@
         <v>686542</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M64">
         <v>2</v>
@@ -2473,19 +2482,19 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="1">
         <v>45231</v>
       </c>
       <c r="H65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M65">
         <v>2</v>
@@ -2496,10 +2505,10 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E66" s="1">
         <v>43948</v>
@@ -2508,7 +2517,7 @@
         <v>262269</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M66">
         <v>2</v>
@@ -2519,19 +2528,19 @@
         <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E67" s="1">
         <v>44920</v>
       </c>
       <c r="H67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -2542,10 +2551,10 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="1">
         <v>44330</v>
@@ -2554,7 +2563,7 @@
         <v>849556</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M68">
         <v>2</v>
@@ -2565,19 +2574,19 @@
         <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="1">
         <v>44768</v>
       </c>
       <c r="H69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M69">
         <v>2</v>
@@ -2588,19 +2597,19 @@
         <v>45</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="1">
         <v>42160</v>
       </c>
       <c r="H70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -2611,19 +2620,19 @@
         <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>42039</v>
       </c>
       <c r="H71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M71">
         <v>2</v>
@@ -2634,19 +2643,19 @@
         <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E72" s="1">
         <v>44942</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M72">
         <v>2</v>
@@ -2657,19 +2666,19 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="1">
         <v>42437</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M73">
         <v>2</v>
@@ -2680,10 +2689,10 @@
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="1">
         <v>43449</v>
@@ -2692,7 +2701,7 @@
         <v>456692</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M74">
         <v>2</v>
@@ -2703,10 +2712,10 @@
         <v>53</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="1">
         <v>42558</v>
@@ -2715,7 +2724,7 @@
         <v>832744</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M75">
         <v>2</v>
@@ -2726,10 +2735,10 @@
         <v>54</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="1">
         <v>43885</v>
@@ -2738,7 +2747,7 @@
         <v>519896</v>
       </c>
       <c r="I76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M76">
         <v>2</v>
@@ -2749,19 +2758,19 @@
         <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="1">
         <v>44828</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M77">
         <v>2</v>
@@ -2772,10 +2781,10 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1">
         <v>43459</v>
@@ -2784,7 +2793,7 @@
         <v>123392</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M78">
         <v>2</v>
@@ -2795,10 +2804,10 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79" s="1">
         <v>44021</v>
@@ -2807,7 +2816,7 @@
         <v>395889</v>
       </c>
       <c r="I79" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M79">
         <v>2</v>
@@ -2818,10 +2827,10 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" s="1">
         <v>45571</v>
@@ -2830,7 +2839,7 @@
         <v>144303</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M80">
         <v>2</v>
@@ -2841,10 +2850,10 @@
         <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E81" s="1">
         <v>43014</v>
@@ -2853,7 +2862,7 @@
         <v>202198</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M81">
         <v>2</v>
@@ -2864,10 +2873,10 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="1">
         <v>45582</v>
@@ -2876,7 +2885,7 @@
         <v>473939</v>
       </c>
       <c r="I82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -2887,19 +2896,19 @@
         <v>66</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E83" s="1">
         <v>44434</v>
       </c>
       <c r="H83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M83">
         <v>2</v>
@@ -2910,10 +2919,10 @@
         <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E84" s="1">
         <v>45108</v>
@@ -2922,7 +2931,7 @@
         <v>227045</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M84">
         <v>2</v>
@@ -2933,19 +2942,19 @@
         <v>68</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="1">
         <v>43662</v>
       </c>
       <c r="H85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M85">
         <v>2</v>
@@ -2956,19 +2965,19 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="1">
         <v>44929</v>
       </c>
       <c r="H86" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M86">
         <v>2</v>
@@ -2979,10 +2988,10 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="1">
         <v>44181</v>
@@ -2991,7 +3000,7 @@
         <v>486842</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M87">
         <v>2</v>
@@ -3002,19 +3011,19 @@
         <v>74</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" s="1">
         <v>44290</v>
       </c>
       <c r="H88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M88">
         <v>2</v>
@@ -3025,19 +3034,19 @@
         <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" s="1">
         <v>42668</v>
       </c>
       <c r="H89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I89" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M89">
         <v>2</v>
@@ -3048,10 +3057,10 @@
         <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E90" s="1">
         <v>43103</v>
@@ -3060,7 +3069,7 @@
         <v>872026</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M90">
         <v>2</v>
@@ -3071,10 +3080,10 @@
         <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E91" s="1">
         <v>44685</v>
@@ -3083,7 +3092,7 @@
         <v>747829</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M91">
         <v>2</v>
@@ -3094,10 +3103,10 @@
         <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" s="1">
         <v>42555</v>
@@ -3106,7 +3115,7 @@
         <v>560542</v>
       </c>
       <c r="I92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M92">
         <v>2</v>
@@ -3117,10 +3126,10 @@
         <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1">
         <v>43655</v>
@@ -3129,7 +3138,7 @@
         <v>732577</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M93">
         <v>2</v>
@@ -3140,19 +3149,19 @@
         <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E94" s="1">
         <v>42202</v>
       </c>
       <c r="H94" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M94">
         <v>2</v>
@@ -3163,10 +3172,10 @@
         <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="1">
         <v>42849</v>
@@ -3175,7 +3184,7 @@
         <v>271438</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M95">
         <v>2</v>
@@ -3186,10 +3195,10 @@
         <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="1">
         <v>44156</v>
@@ -3198,7 +3207,7 @@
         <v>362680</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M96">
         <v>2</v>
@@ -3209,19 +3218,19 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E97" s="1">
         <v>43319</v>
       </c>
       <c r="H97" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M97">
         <v>2</v>
@@ -3232,10 +3241,10 @@
         <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" s="1">
         <v>42743</v>
@@ -3244,7 +3253,7 @@
         <v>499445</v>
       </c>
       <c r="I98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M98">
         <v>2</v>
@@ -3255,10 +3264,10 @@
         <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E99" s="1">
         <v>44938</v>
@@ -3267,7 +3276,7 @@
         <v>355767</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M99">
         <v>2</v>
@@ -3278,19 +3287,19 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="1">
         <v>44106</v>
       </c>
       <c r="H100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M100">
         <v>2</v>
@@ -3301,10 +3310,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E101" s="1">
         <v>42784</v>
@@ -3313,7 +3322,7 @@
         <v>820971</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M101">
         <v>2</v>
@@ -3331,9 +3340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1FDFDF-023A-48E9-B5AA-077022D1DE4B}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3345,27 +3354,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3377,15 +3386,15 @@
         <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3397,15 +3406,15 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3417,15 +3426,15 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3437,15 +3446,15 @@
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3457,15 +3466,15 @@
         <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3477,15 +3486,15 @@
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3497,15 +3506,15 @@
         <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3517,15 +3526,15 @@
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3537,15 +3546,15 @@
         <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -3557,15 +3566,15 @@
         <v>0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -3577,15 +3586,15 @@
         <v>0.5</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3597,15 +3606,15 @@
         <v>0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3617,15 +3626,15 @@
         <v>0.5</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3637,15 +3646,15 @@
         <v>0.5</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3657,15 +3666,15 @@
         <v>0.5</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3677,15 +3686,15 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3697,15 +3706,15 @@
         <v>0.5</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3717,15 +3726,15 @@
         <v>0.5</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3737,15 +3746,15 @@
         <v>0.5</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3757,15 +3766,15 @@
         <v>0.5</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3777,15 +3786,15 @@
         <v>0.5</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3797,15 +3806,15 @@
         <v>0.5</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3817,15 +3826,15 @@
         <v>0.5</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3837,15 +3846,15 @@
         <v>0.5</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3857,15 +3866,15 @@
         <v>0.5</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3877,15 +3886,15 @@
         <v>0.5</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3897,15 +3906,15 @@
         <v>0.5</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3917,15 +3926,15 @@
         <v>0.5</v>
       </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3937,15 +3946,15 @@
         <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -3957,15 +3966,15 @@
         <v>0.5</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3977,15 +3986,15 @@
         <v>0.5</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3997,15 +4006,15 @@
         <v>0.5</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -4017,15 +4026,15 @@
         <v>0.5</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -4037,15 +4046,15 @@
         <v>0.5</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4057,15 +4066,15 @@
         <v>0.5</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4077,15 +4086,15 @@
         <v>0.5</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4097,15 +4106,15 @@
         <v>0.5</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4117,15 +4126,15 @@
         <v>0.5</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -4137,15 +4146,15 @@
         <v>0.5</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -4157,15 +4166,15 @@
         <v>0.5</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4177,15 +4186,15 @@
         <v>0.5</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4197,15 +4206,15 @@
         <v>0.5</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -4217,15 +4226,15 @@
         <v>0.5</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4237,15 +4246,15 @@
         <v>0.5</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -4257,15 +4266,15 @@
         <v>0.5</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4277,15 +4286,15 @@
         <v>0.5</v>
       </c>
       <c r="E47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4297,15 +4306,15 @@
         <v>0.5</v>
       </c>
       <c r="E48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4317,15 +4326,15 @@
         <v>0.5</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4337,15 +4346,15 @@
         <v>0.5</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4357,15 +4366,15 @@
         <v>0.5</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4377,15 +4386,15 @@
         <v>0.5</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4394,10 +4403,10 @@
         <v>44293</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4411,15 +4420,15 @@
         <v>0.5</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4431,15 +4440,15 @@
         <v>0.5</v>
       </c>
       <c r="E55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4449,15 +4458,15 @@
         <v>0.5</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4469,15 +4478,15 @@
         <v>0.5</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4489,10 +4498,10 @@
         <v>0.5</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4504,9 +4513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E5BEE-6ACF-40EF-BC29-1914A85A0815}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4519,42 +4528,42 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>43413</v>
@@ -4586,7 +4595,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1">
         <v>43599</v>
@@ -4618,7 +4627,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1">
         <v>44329</v>
@@ -4650,7 +4659,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1">
         <v>45139</v>
@@ -4682,7 +4691,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1">
         <v>45327</v>
@@ -4714,7 +4723,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1">
         <v>43191</v>
@@ -4746,7 +4755,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="1">
         <v>43440</v>
@@ -4778,7 +4787,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="1">
         <v>43597</v>
@@ -4810,7 +4819,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" s="1">
         <v>43786</v>
@@ -4842,7 +4851,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1">
         <v>43975</v>
@@ -4874,7 +4883,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="1">
         <v>44163</v>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1">
         <v>42850</v>
@@ -4938,7 +4947,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="1">
         <v>43656</v>
@@ -4970,7 +4979,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1">
         <v>44202</v>
@@ -5002,7 +5011,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1">
         <v>44383</v>
@@ -5034,7 +5043,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1">
         <v>43872</v>
@@ -5066,7 +5075,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1">
         <v>44058</v>
@@ -5098,7 +5107,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1">
         <v>44242</v>
@@ -5130,7 +5139,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1">
         <v>44432</v>
@@ -5162,7 +5171,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1">
         <v>45526</v>
@@ -5194,7 +5203,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1">
         <v>44250</v>
@@ -5226,7 +5235,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1">
         <v>44432</v>
@@ -5258,7 +5267,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1">
         <v>45221</v>
@@ -5290,7 +5299,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1">
         <v>45411</v>
@@ -5322,7 +5331,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1">
         <v>44631</v>
@@ -5354,7 +5363,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B27" s="1">
         <v>45065</v>
@@ -5386,7 +5395,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B28" s="1">
         <v>43064</v>
@@ -5418,7 +5427,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" s="1">
         <v>43189</v>
@@ -5450,7 +5459,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="1">
         <v>45236</v>
@@ -5482,7 +5491,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B31" s="1">
         <v>45418</v>
@@ -5514,7 +5523,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" s="1">
         <v>42739</v>
@@ -5546,7 +5555,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1">
         <v>43749</v>
@@ -5578,7 +5587,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1">
         <v>43938</v>
@@ -5610,7 +5619,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1">
         <v>44123</v>
@@ -5642,7 +5651,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" s="1">
         <v>44180</v>
@@ -5674,7 +5683,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1">
         <v>45123</v>
@@ -5706,7 +5715,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1">
         <v>44319</v>
@@ -5738,7 +5747,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B39" s="1">
         <v>45867</v>
@@ -5770,7 +5779,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1">
         <v>46055</v>
@@ -5802,7 +5811,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1">
         <v>46236</v>
@@ -5834,7 +5843,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1">
         <v>45878</v>
@@ -5866,7 +5875,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1">
         <v>44737</v>
@@ -5898,7 +5907,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B44" s="1">
         <v>44926</v>
@@ -5930,7 +5939,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1">
         <v>45404</v>
@@ -5962,7 +5971,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B46" s="1">
         <v>45588</v>
@@ -5994,7 +6003,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1">
         <v>43957</v>
@@ -6026,7 +6035,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1">
         <v>42971</v>
@@ -6058,7 +6067,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1">
         <v>43951</v>
@@ -6090,7 +6099,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1">
         <v>43047</v>
@@ -6122,7 +6131,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51">
@@ -6147,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -6176,12 +6185,12 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1">
         <v>44467</v>
@@ -6208,12 +6217,12 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1">
         <v>44375</v>
@@ -6240,12 +6249,12 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B55" s="1">
         <v>44375</v>
@@ -6269,12 +6278,12 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" s="1">
         <v>44375</v>
@@ -6298,12 +6307,12 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" s="1">
         <v>44375</v>
@@ -6327,12 +6336,12 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1">
         <v>44375</v>
@@ -6356,12 +6365,12 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B59" s="1">
         <v>44375</v>
@@ -6385,12 +6394,12 @@
         <v>1</v>
       </c>
       <c r="K59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B60" s="1">
         <v>44375</v>
@@ -6414,12 +6423,12 @@
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1">
         <v>44375</v>
@@ -6443,12 +6452,12 @@
         <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B62" s="1">
         <v>44375</v>
@@ -6475,12 +6484,12 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B63" s="1">
         <v>44375</v>
@@ -6507,7 +6516,7 @@
         <v>5</v>
       </c>
       <c r="K63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
